--- a/final/result.xlsx
+++ b/final/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MLFN\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA866D42-BA9E-4FAE-9EED-913BB4681083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B193429-B37B-48CB-8E8E-D387C1D074D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C4E1AD5-ECD5-4651-8BB2-064DAA27BDD5}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,57 +134,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2633,16 +2590,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2669,16 +2626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175258</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>45719</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3006,7 +2963,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/final/result.xlsx
+++ b/final/result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MLFN\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B193429-B37B-48CB-8E8E-D387C1D074D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A22D0-9F69-4AF9-BCE8-9C231C0A4E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C4E1AD5-ECD5-4651-8BB2-064DAA27BDD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4E1AD5-ECD5-4651-8BB2-064DAA27BDD5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Naïve bayse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,18 @@
   </si>
   <si>
     <t>NN_with_all_feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thershold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1500,6 +1513,472 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-837A-4975-B623-5324CF1A5D0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="2046336383"/>
+        <c:axId val="2046336799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2046336383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>threshold</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046336799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2046336799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>recall</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046336383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1580,6 +2059,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2233,6 +2752,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2655,6 +3690,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568787A1-F225-4566-882E-7A8699A4520E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2962,8 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC9AA7-87A2-4C6D-BDF1-179C5AAD4558}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3211,4 +4287,185 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD4B01F-FE5D-4592-9803-D78FB52BE9DD}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0.1</v>
+      </c>
+      <c r="D1">
+        <v>0.2</v>
+      </c>
+      <c r="E1">
+        <v>0.3</v>
+      </c>
+      <c r="F1">
+        <v>0.4</v>
+      </c>
+      <c r="G1">
+        <v>0.5</v>
+      </c>
+      <c r="H1">
+        <v>0.6</v>
+      </c>
+      <c r="I1">
+        <v>0.7</v>
+      </c>
+      <c r="J1">
+        <v>0.8</v>
+      </c>
+      <c r="K1">
+        <v>0.9</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>469</v>
+      </c>
+      <c r="D2">
+        <v>458</v>
+      </c>
+      <c r="E2">
+        <v>421</v>
+      </c>
+      <c r="F2">
+        <v>411</v>
+      </c>
+      <c r="G2">
+        <v>379</v>
+      </c>
+      <c r="H2">
+        <v>350</v>
+      </c>
+      <c r="I2">
+        <v>305</v>
+      </c>
+      <c r="J2">
+        <v>249</v>
+      </c>
+      <c r="K2">
+        <v>172</v>
+      </c>
+      <c r="L2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f>B2/B3</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:L4" si="0">C2/C3</f>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.498</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>